--- a/res2.xlsx
+++ b/res2.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1180333</t>
+          <t>1190333</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -497,7 +497,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1180255</t>
+          <t>107.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -547,7 +547,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1180041</t>
+          <t>1380081.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -565,7 +565,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1180606</t>
+          <t>1190606</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -582,7 +582,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1180456</t>
+          <t>1180856</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1180552</t>
+          <t>1100652</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -651,7 +651,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1180045</t>
+          <t>1180045.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1180212</t>
+          <t>1280212</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -695,7 +695,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1180155</t>
+          <t>1280155</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -726,7 +726,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1180172</t>
+          <t>1380172</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
